--- a/500all/speech_level/speeches_CHRG-114hhrg93535.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93535.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="119">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Smith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Smith. The subhearing of the joint subcommittees will come to order, and good afternoon to everybody.    At a time when the administration seems keen to reach a nuclear accord that relies at least to some extent on trust, although there are some verification aspects to it, with the Iranian regime and perhaps even a de facto collaboration in the fight against ISIS, it is wise to consider and scrutinize the dismal human rights record of this country which we are currently conducting negotiations with.    How they treat their own people is illustrative of how they see and will treat outsiders. This hearing provides a critical examination of human rights in Iran, which is important and necessary in its own right, and also places in context the administration's efforts toward a nuclear deal.    According to the report by the U.N. Special Rapporteur on Human Rights in Iran, between July 2013 and June 2014, at least 852 people were executed in Iran. Shockingly, some of those executed were children under the age of 18. Iranian human rights activists place the number of people executed by the regime at 1,181.    The current Department of State human rights report states that Iranian human rights violations include disappearances; cruel, inhuman, or degrading treatment; mistreatment of prisoners including judicially sanctioned amputation and flogging; rape; politically motivated violence and repression; harsh and life-threatening conditions in detention and prison facilities, with instances of death in custody; arbitrary arrests and lengthy pretrial detention, sometimes incommunicado.    While the Iranian Constitution grants equal rights to all ethnic minorities and allows for minority languages to be used in the media and in schools, minorities do not enjoy equal rights and the regime consistently denies their right to use their language in school. In addition, a 1985 law prohibits non-Shi'a ethnic minorities from fully participating in civic life. That law and its associated provisions make full access of employment, education and other areas conditional on a devotion to the Islamic Republic and the tenets of the Shi'a Islam.    The regime disproportionately targets minority groups including Kurds, Arabs, Azeris, and others, for arbitrary arrest, prolonged detention, and physical abuse. These groups report political and socioeconomic discrimination particularly in their access to economic aid, business licenses, university admissions, permission to publish books, and housing and land rights.    Because of the severe religious freedom abuses, our Government has designated Iran as a Country of Particular Concern since 1999, each year. Frequently, the arrest and harassment of members of religious minorities has continued following a significant increase in 2012. The government severely restricts religious freedom, and there have been reports of imprisonment, harassment, intimidation, and discrimination based on those faith beliefs.    There has been continued reports of government charging religious and ethnic minorities with ``enmity against God,'' ``anti-Islamic propaganda,'' or vague national security crimes for their religious activities. Those reportedly arrested on religious grounds face poor prison conditions and treatment, as with most prisoners of conscience.    One of the imprisoned on religious grounds is Pastor Saeed Abedini, a U.S. citizen and father of two--Rebekkah and Jacob--and a Christian imprisoned in Iran because of his, and only because of, his faith. Pastor Abedini was imprisoned by the Iranian regime nearly 1,000 days ago when members of the Revolutionary Guard pulled him off a bus and then placed him under house arrest. He later was taken away in chains to Evin prison, where he endured periods of solitary confinement, beatings, internal bleeding, death threats, and continued psychological torture all because he would not deny his Christian faith.    What was Pastor Abedini's crime? According to the court, he was a threat to the security of Iran because of his leadership role in Christian churches between 2000 and 2005. And I would note parenthetically that he was allowed to go back to build an orphanage, got the approval and then had that all reversed and then he was arrested.    President Obama promised Pastor Abedini's son Jacob that he would do all he can to gain his father's release by the boy's birthday next month. Yesterday, the Secretary of State in answer to a question I posed said the administration was working quietly to gain Pastor Abedini's release as soon as possible. Let us hope.    Meanwhile, Iran is repeatedly cited for virtually unrelenting repression of the Baha'is community which Iran's Shiite Muslim clergy views as a heretical sect. Baha'is number about 300,000-350,000. At least 30 Baha'i remained imprisoned and 60 were arrested in 2012. A February 2013 U.N. report said that 110 Baha'is were in jail. They had said that 133 were expected to start serving jail time.    Since the 1979 Islamic Revolution, the regime has executed more than 200 Baha'is simply because of their faith. The regime frequently prevents many Baha'is from leaving the country, harasses them, persecutes them, and generally disregards their property rights. I would note parenthetically that when Ronald Reagan was President and was the first one to raise the issue at the Presidential level, I was there at the White House when he so designated the defense of the Baha'i as a very vital, important interest of the United States and all concerned about human rights.    Iranian courts offer no recourse to the monstrous violations of human rights because without an independent judiciary Iranians and foreigners tied to those courts are routinely denied fair trials sometimes resulting in executions without due process.    I'd like to now yield to Mr. Deutch for any opening comments he may have.</t>
   </si>
   <si>
     <t>412385</t>
   </si>
   <si>
-    <t>Theodore E. Deutch</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Deutch. Thank you. Thank you Chairman Smith, Chairman Ros-Lehtinen and Ranking Member Bass for holding today's joint hearing. It is very important that our two subcommittees come together today to shine a light on Iran's atrocious human rights record. And I apologize because this is an issue I care deeply about but I'm going to be running back and forth to another hearing taking place at the same time.    While the world anxiously awaits to see what if any agreement will be reached on Iran's nuclear weapons program, this hearing serves as an important reminder that even beyond the dangerous and illicit program Iran's regime routinely violates human rights of the Iranian people. At the same time that the news is focused on Geneva, back in Iran the human rights situation is as dismal as ever.    We are well past the Ahmadinejad period in Iran where inflammatory statements made criticism easy. Enough time has passed to see what the Rouhani administration can do. Unfortunately it appears that Rouhani has fallen short on many of his campaign promises, hamstrung perhaps by the Supreme Leader's ultimate and absolute control. The Iranian economy continues to suffer due to the intransigence of its leaders, and the Iranian people remain repressed and restricted by the ultra-conservative social policies of the Ayatollah.    Today's hearing serves as an important reminder that even if we were to resolve the nuclear issue, even if hypothetically the P5+1 reaches an acceptable nuclear deal, Iran still remains a global leader in terrorism financing and human rights abuses. Iran would still be willing to sentence a juvenile to death for the crime of corruption on earth and imprison hundreds of political prisoners.    This is a government that refuses for its own people some of the most fundamental human rights, a government that is willing to perpetuate misogynistic, racist, and homophobic policies, and one that will relentlessly defend its right to possess nuclear capabilities while the Supreme Leader continues to decry Israel's right to simply exist.    Showing a complete disregard for the principle of the right to life, Iran continues to execute its citizens at alarming rates. Official sources put the number of executions in 2014 at 200, but the actual number could likely be over 700. Many of those individuals were charged with questionable or vague offenses, like a woman last October that was convicted of killing a man that she claimed was in the act of raping her. With dozens and dozens of offenses that carry capital punishment, Iran's judiciary has shown just how easy it is for an individual to be put to death, with over 80 Iranians executed in January of this year alone.    The government allows no room for political dissent or critical belief. The regime continues to censor journalists and political activists and to deny its citizens their freedom of speech and opinion. Iran's unfounded arrest and subsequent jailing of Washington Post journalist Jason Rezaian on trumped up charges is despicable and must be condemned by all responsible nations.    The Internet is certainly not an open and safe space in Iran. Anything from a Facebook post to a viral video can land an individual in jail for years. And with one of the highest incarceration rates in the world, Iran certainly exercises their willingness to imprison individuals in order to keep absolute control over media and news content consumed by the people.    Another favorite tactic of the Iranian regime is targeting ethnic and religious minorities. The country's largest non-Muslim religious minority, people of the Baha'i Faith, face particularly hostile treatment. This community is denied freedom of religion, they live under constant fear of arrest, attacks, and destruction of their religious sites. Over 100 Baha'is are currently held in detention and many international reports have criticized Iran's failure to ensure that they receive a fair trial and adequate access to counsel.    Many other groups also face bigotry and targeted discrimination. Christians and Sunni Muslims, Arabs, Kurds, and Azeris, and many more religious and ethnic minority groups are also frequently targeted by the regime, and many are forced to hide signs of their identity while in public.    Women are still subservient to men in many aspects of daily life, and as we witnessed from the gruesome pictures of acid attacks last fall, women are still targeted for violating social norms as set by the state's religious interpretations.    For the LGBT community the environment in Iran is bleak. LGBT individuals face discrimination from their government but also from their friends and families. They can't turn to the courts because same-sex relationships are criminalized. They can't report attacks to law enforcement authorities out of fear that they may be arrested for being LGBT.    And there's little information or support available on the ground. The head of Iran's human rights council made the government's position clear when he said that universal human rights should not be extended to what he referred to as the homosexual lifestyle.    Yesterday during another Foreign Affairs Committee hearing, I implored Secretary Kerry to continue to raise the case of Bob Levinson, an American citizen and my constituent, who has been missing in Iran since March 2007, while our negotiators sit across the table from the Iranians. Eight years later Bob is still not home. Despite indications by the Iranian Government of their willingness to assist in this case, we're nearing the eighth anniversary of his disappearance and we see no positive signs. We must continue to advocate for help in Bob's case and for the release of the other American citizens unjustly held in Iran, Amir Hekmati and Pastor Abedini.    Last November we passed a resolution condemning the Iranian Government for these and many more human rights violations, a long list to be sure, but it is important that we as a body consistently condemn these policies and practices. Unfortunately the same is not the case for the rest of the world. The U.N. General Assembly's Third Committee also voted last fall in a resolution on Iran's human rights abuses. And while it passed with 78 votes, 69 countries abstained and 35 countries voted against it.    Finally, as we get closer to the deadlines for negotiations with Iran, I urge my colleagues in Congress and our negotiators in Geneva to not take our eyes off what is happening on the ground in Iran. With such deplorable human rights abuses occurring daily and millions of Iranians repressed and facing discrimination, we've got to keep the global spotlight on Iran and condemn the government's disregard for basic human rights. That is what today's hearing will do.    I want to thank again the chairman. I want to thank our witnesses. I look forward to hearing from you today.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>400344</t>
   </si>
   <si>
-    <t>Ileana Ros-Lehtinen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Ros-Lehtinen. Thank you so much, Chairman Smith, and thank you for holding this joint subcommittee hearing on this important topic. And in fact this is the third hearing that Chairman Smith and I have held on the issue of human rights in Iran, and I am appreciative of your continued dedicated leadership on this issue.    I want to first start with some good news. We confirmed yesterday that Rozita Vaseghi was finally released last month after a 5-year sentence in prison in Iran. Rozita is a member of the persecuted Baha'i community that you have heard about from my colleagues. They are Iran's largest non-Muslim religious minority and I adopted her as a prisoner of conscience last year as part of the Tom Lanto Human Rights Commission's Defending Freedoms project.    And while I am relieved, all of us are, that Rozita has been released and will be able to get the health care that she needs after years of brutal mistreatment and solitary confinement, we know that her ordeal is not over. She has not been given any paperwork. Authorities have not told her whether she really might continue to serve a second 5-year term or even an arbitrary 2-year term. She fears that she could be thrown back in prison at any time, so we continue to pray for Rozita and for so many others as well.    Mr. Chairman, as you know the Iranian regime uses tactics like those that they used against Rozita every day to instill fear in the people of Iran. Iran's human rights practices are amongst the worst in the world. But in its desperation to secure a nuclear deal, the Obama administration has completely ignored the issue of human rights in Iran as well as many other concerns that we have with the Iranian regime.    And this serves as another example of the policy of the White House to look the other way on human rights violations as part of any negotiation, and that was evident in Cuba. The administration is hosting regime officials tomorrow after the Castro state security folks have arrested over 300 civil society activists in the last 3 weeks. In the last 3 weeks. And delegations have come and gone and folks say they are all in favor of human rights, but apparently not while there. Among them was Berta Soler who testified before your subcommittee, Mr. Chairman, 3 weeks ago. In these secret talks with Cuba, the administration showed its willingness to trade away the store for little concessions in return.    So the question becomes what will the administration trade next with the Iran nuclear deal? What will the administration give up in return for those American citizens who are being held in Tehran? The parallels between how the White House is negotiating in secret with Cuba and Iran at the same time--well, the parallels are striking.    What the administration has never understood or really has chosen to ignore is that Congress passed strong sanctions laws not just to stop Iran's nuclear program but also its ballistic missile program, its weapons program, its worldwide support for terror, its destabilization of the region, its abysmal human rights record. And as the author of many pieces of Iran related sanctions legislation, I can tell you that from the beginning the administration fought Congress tooth and nail to stop any sanctions at all.    And so it is of no surprise to anyone that the human rights issue is not even a part of the discussion when we talk about the nuclear deal. And now it appears increasingly likely that the administration will give away what little leverage we have and leave the ayatollahs free to continue to oppress the people of Iran, to continue jailing, torturing, and executing dissidents, prisoners of conscience, religious minorities, and ethnic minorities.    It is truly shameful to hear our own State Department talk about the importance of global human rights, talk about it when it does absolutely nothing and in fact is indirectly legitimizing the continued repression of the people of Iran.    The Obama administration after failing to support the Iranian people's right of self-determination during the 2009 Green Movement rushed to brand Rouhani as a moderate saying that human rights under this Ayatollah lackey would somehow improve.    But what we have seen, Mr. Chairman, is just the opposite. Human rights under Rouhani have actually gotten worse. There have been more crackdowns on free speech, more arrests, more jailings of journalists, more jailings of political prisoners, more persecution of women, the LGBT community, religious minorities, ethnic minorities, more executions.    According to the latest report of Human Rights Watch, the real number of executions in Iran last year is thought to be over 600 including eight who were under the age of 18. We still cannot confirm the execution last week of Saman Naseem, a 22-year-old ethnic Kurd who was 17 when he was arrested. Bloggers and social media users have also suffered under Rouhani with security forces cracking down sharply on any dissent, especially those considered to be leading members of the opposition.    Members of the Baha'i community like Rozita are especially targeted with 100 Baha'is currently in prison. Baha'i cemeteries are systematically destroyed, including last year's bulldozing of over 1,000 graves in one city in order to build a cultural and sports complex. And May 14th is the 7-year anniversary of the imprisonment of the Baha'i Seven, the former leadership group who have been serving 20-year sentences for advocating on behalf of their religious beliefs.    The regime hopes that we will move on, we will forget the people of Iran as the administration in the U.S. continues to negotiate solely on the nuclear program and there are at least four unjustly jailed Americans in Iranian prisons. And we've mentioned them here.    Saeed Abedini, a Christian pastor who has been in jail since 2012 has been tortured and beaten by prison guards and inmates. Marine veteran Amir Hakmati who has been held since 2011. His health is rapidly deteriorating. He is also beaten and tortured. Jason Rezaian, the Washington Post bureau chief arrested last year, still has not been charged but he is in solitary confinement and his health is declining. And of course the constituent of my good friend Ted Deutch, Bob Levinson, a south Florida resident who has been held captive by the Iranian regime since March 9, 2007, making him the longest held hostage in U.S. history. These four U.S. citizens are just a few of the millions who continue to suffer under the Iranian regime, and tragically that suffering is not part of the administration's calculus.    Human rights are an essential factor in long term stability, should be a key objective in our foreign policy strategy, not a simple resolution to pass but something to live up to every day both for those suffering under tyranny and for our own national security.    Mr. Chairman, we must not allow the human rights conditions in Iran to be ignored continually by this administration. Thank you, sir.</t>
   </si>
   <si>
@@ -85,9 +76,6 @@
     <t>412470</t>
   </si>
   <si>
-    <t>David N. Cicilline</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cicilline. Thank you Mr. Chairman, and thank you to you and to Ranking Member Deutch, and thank you to Chairman Ros-Lehtinen for convening this hearing and for calling attention to this very important issue.    While the nuclear negotiations with Iran have dominated discussions in this country of late, the fact remains that Iran remains one of the world's worst perpetrators of human rights abuses and it is critical that we continue to bring attention to this issue. For those who dare to criticize the regime of Supreme Leader Khamenei or attempt to challenge the government and propose conformity, they face harsh consequences sometimes even including death.    I am particularly concerned about the horrific disregard for basic political expression, which according to the current State Department human rights report, they characterize it as the most egregious human rights problems were the government's manipulation of the electoral process, which severely limited citizens' right to change their government peacefully through free and fair elections; restrictions on civil liberties including the freedoms of assembly, speech, and press; and disregard for the physical integrity of persons whom it arbitrarily and unlawfully detained, tortured, and killed. And as was explained, including four American citizens currently being held.    In addition, I am particularly concerned about the rights of LGBT persons and other vulnerable minority groups in the country, in a country that imposes strict, so-called morality codes, does not respect basic freedom of expression or religion and limits access to the outside world.    I thank the witnesses for being here today and look very much forward to your testimony, and again thank the chairman and ranking member for calling this hearing. And with that I yield back.</t>
   </si>
   <si>
@@ -97,9 +85,6 @@
     <t>400071</t>
   </si>
   <si>
-    <t>Steve Chabot</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Chabot. Thank you, Mr. Chairman. I want to commend you and Chairman Ros-Lehtinen for continuing this series of hearings on Iran, perhaps the most dangerous regime in the world today.    Iran continues to be one of the world's leading abusers of fundamental human rights. The example of the Baha'is which both you and Chairman Ros-Lehtinen talked about already, it has already been referred to, but unfortunately it is only one of many of these abuses which are taking place today.    The regime persecutes anybody who dares to speak publicly or not so publicly against the regime and often issues death sentences to Iranians who are charged with insulting the Islam. It has become pretty clear that the so-called moderate Rouhani is just another in a long list of Iranian dictators whose contempt for his own people's fundamental human rights and religious freedom is readily apparent.    When I chaired the Middle East Subcommittee in not the past, but the one before that Congress, as I had the opportunity to spend about an hour with Prime Minister Netanyahu in his office, and some of the things he told me were shocking and I hadn't heard a lot of them in the news. And one in particular that stands with me to this day was the fact that during the Green Movement they had videos, the government did, and so when they were over we might have thought it was over. And what they were doing is systematically identifying those people that were in the crowds and that were supporters of the Green Movement and they were disappearing and in many instances along with their families, and this was something that got very little attention.    And my colleague, Ms. Ros-Lehtinen, mentioned this administration's, for lack of a better term, dropping the ball, in many instances when it comes to Iran. That was one in particular. I think we had an opportunity to actually speak out and do something on behalf of that movement. That was an opportunity that was missed and a lot of people unfortunately have paid a very high price as a result of that inaction.    And so I want to thank you for holding this hearing and I yield back.</t>
   </si>
   <si>
@@ -109,36 +94,24 @@
     <t>412636</t>
   </si>
   <si>
-    <t>David A. Trott</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Trott. I want to thank Chairman Smith and Chairman Ros-Lehtinen for holding this hearing. And there's no question that Iran is guilty of egregious human rights violations. They continue to manipulate the election process to prevent peaceful and fair elections. They severely restrict civil liberties, commit repeated religious freedom abuses, show disrespect for the physical integrity of its people through arbitrary detentions and torture and killing.    Other problems include sanctioned amputations and rape and flogging and punishment for politically motivated violence. It is not surprising that the World Press Freedom Index ranked Iran 173rd out of 180 countries with respect to human rights violations.    This hearing is timely for two reasons. First, we have to continue to shine a light and show the terrible abuses that are happening with respect to human rights in Iran, and secondly, Secretary Kerry continues to tell us that we can trust and rely on our negotiations with them and that they need more time. And for me, I submit that a country that is guilty of such egregious abuse cannot be trusted, should not be trusted, and is not worthy of the respect of the world community. Thank you for being here today.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Smith. Thank you very much, Mr. Trott.    I would like to now introduce our very distinguished panel beginning first with Shayan Arya who is an expert in Iran, who is also a human rights and political activist. He was elected to the Central Committee of the Constitutionalist Party of Iran in which he served multiple terms. He has co-authored numerous articles focusing on the Iranian regime's human rights violations, internal politics, and terrorist activities. The articles have been published around the world in publications such as the Wall Street Journal, The Australian, the Washington Times, Jerusalem Post, and Strategic Outlook.    We will then hear from Mr. Mohsen Sazegara who was part of the 1979 Islamic Revolution and one of the founders of the Islamic Revolutionary Guards. He held several positions within the regime in the first decade after the revolution, but declined to accept any positions in it after 1988. He has published three newspapers and two monthly magazines which were all shut down by the regime, and has been arrested and imprisoned four times in Iran. While out of the country for medical treatments in 2004, he was sentenced to 6 years of jail. He has continued his political opposition and is currently the president of the Research Institute on Contemporary Iran.    Then we will hear from Mr. Anthony Vance, who oversees the development of the U.S. Baha'i Office of Public Affairs' programs and strategic direction. He joined the office in 2010 after spending 4 years at the Baha'i World Center in Haifa, Israel, representing it to the diplomatic community, civil society, and to the host government. A lawyer by training, he spent 21 years in the U.S. Agency for International Development in legal and managerial positions in Washington, Cote d'Ivoire, Kenya, Botswana, and Egypt.    Mr. Arya, if you could begin.</t>
   </si>
   <si>
-    <t>Arya</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Arya. Chairman Smith, Chairman Ros-Lehtinen, and honorable members of the subcommittees, it is really an honor to appear before you today to discuss the human rights situation in Iran under the Islamic regime. It is an important issue that has unfortunately been overlooked by the international community in light of the current negotiations between Iran and P5+1 since the election of Hassan Rouhani as President of Iran in 2013.    Since that time, the Iranian regime, its supporters and lobbyists have tried vigorously to convince the international community in general and the U.S. administration in particular that something has fundamentally changed for the better in Iran, that the Iran Islamic Republic can be trusted to act according to Iran's national interests and not its ideological ones. Unfortunately however the regime's actions speak louder than its words.    Iran, after China, currently has the highest number of executions in the world, and since Rouhani's election there has not been a reduction in that statistic. To the contrary, there has been a significant increase. In 2014 alone, eight individuals believed to be under 18 years of age at the time of their alleged crimes were reportedly executed. Human rights activists in Iran put the total number of executions for 2013 and 2014 at 1,181 people.    The execution of juveniles is not the only crime committed by the Islamic Republic. The Islamic regime systematically tries to brainwash children. On this important issue I would like to draw your attention to the research done by the Institute for Monitoring Peace and Cultural Tolerance in School Education, IMPACT-se. The Islamic Republic systematically indoctrinates children and prepares them for war and encourage the hostile attitude toward non-Muslims with children instructed not to take unbelievers, Jews and Christians as friends.    Again, against this background is it any surprise that almost all religious minorities in Iran suffer officially sanctioned discriminations? Baha'is are banned from all government positions, are not allowed to have places of worship, and are banned from teaching the faith and even attend universities. In some cases they have even been denied burial sites and their cemeteries are systematically destroyed.    Evangelical Christians are suffering as well. Even Muslims who do not conform to the official interpretation of Islam face heresy charges. Last September, Mohsen Amir-Aslani was executed for insulting the prophet Jonah by declaring that his story in Koran was symbolic rather than factual.    Even traditional Shiite clerics who reject official interpretation of Islam are persecuted. Ayatollah Hossein Kazemeyni Boroujerdi is a traditional Shiite cleric who openly questions the legitimacy of the Islamic Republic and advocates a secular regime and has been imprisoned since 2007. Followers of Ahl-e Haqq religion are also under enormous pressure. Several members of the Ahl-e Haqq community have self-immolated in recent years to protest against religious persecution in Iran.    The Nematollahi-Gonabadi Sufi order is another example. Many members of this Sufi order are presently imprisoned and several places of their worship in Isfahan and other cities have been demolished. Mohammad Ali Taheri, founder of a spiritual group, was also arrested in 2011. In fact yesterday some of his supporters came out in support of him and many of them were arrested, just yesterday.    Iran is one of the few countries in the world that prosecutes lawyers for representing their clients. Ms. Nasrin Sotudeh and Abdolfattah Soltani are good examples. Mr. Soltani, a leading human rights lawyer has even been denied medical attention despite the fact that even prison doctors have written a letter recommending that he be treated outside the prison.    Last March, Maryam Shafipour, 29 years old, was sentenced to 7 years in prison for peaceful protests. Many student activists such as Majid Tavakkoli, Bhareh Hedayat, Sayed Zia Nabavi, Majid Dori, and Navid Khanjani have spent years, years in prisons for no crimes other than exercising their rights to peaceful protest.    A young brilliant scientist, Mr. Omid Kokabee, has been incarcerated in Evin prison since 2011. He was charged with espionage and for refusing not to work on military research projects with the government. That was his only crime.    Atena Farghadani, a children's rights advocate currently is in prison and she is on hunger strike. And what she's asking, not be released but to be moved from Gharchak prison which is a notoriously substandard women prison, to be moved back to Evin prison. And she's in a very dire situation right now from what I heard yesterday.    Political activists such as Heshmatollah Tabarzadi have spent years in prison for their peaceful activities. Just a few days ago, Masood Arab Choobdar, Saeed Shirzad, Hamid Babaei who were exiled from Tehran to Rajaei Shahr prison, which is another notoriously dangerous prison in Iran, they were beaten and severely abused. Another Baha'i prisoner, Shahram Chinian was also beaten, so severely that his face was unrecognizable by his friends.    Last July, Iranian writer Arzhang Davoodi was sentenced to death after spending nearly 11 years in prison on new charges of enmity against God in relation to his political activism and writings in support of a secular system. Journalists are another group that suffer under the Islamic Republic. According to Committee to Protect Journalists currently there are 30 journalists in Iran in prison.    These cases are simply a reflection of the Iranian regime's repressive domestic practices. The main question then is whether these practices are changing and whether Iran's new President Hassan Rouhani is really a reformer. To understand Mr. Rouhani's relationship to the state it is necessary to review his background. He has been a member of Islamic regime's leadership for the past 36 years and therefore has been an integral part of every aggressive move that the Islamic Republic has made since 1982. From creation and training of Hezbollah to the 1983 attack on U.S. and French military forces in Lebanon, the assassination of nearly 200 Iranian dissidents in Europe throughout the 1980s and 1990s, the 1994 bombing in Buenos Aires, and more recently to the Iranian's asymmetric campaign targeting U.S. and coalition forces in Iraq.    It is impossible to believe that Mr. Rouhani had no knowledge of these actions. Rouhani's cabinet choice for the post of Justice Minister, Mostafa Pourmohammadi, speaks volumes to his commitment to the issue of human rights. Pourmohammadi had direct role in the extrajudicial executions of thousands of political prisoners in the 1980s.    As we all know, Iran is the only country in the Middle East where people are by and large are friendly to America, therefore it is crucial that America stands up to the Islamic Republic on this important issue. I would like to encourage the honorable members of the subcommittees on behalf of all those who are suffering in the hands of the Islamic regime to link any easing or lifting of sanctions not just to the outcome of the nuclear negotiations but also to the improvement in the human rights situation in Iran.    With that I would like to thank you again for this opportunity and would be more than happy to answer any questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Smith. Thank you very much for your testimony, and without objection your full statement will be made a part of the record as well as our other distinguished witnesses.    Mr. Sazegara, please proceed.</t>
   </si>
   <si>
-    <t>Sazegara</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sazegara. Thank you, Mr. Chairman. Thank you, subcommittee members.    During the last three and a half decades, the Iranian people have bitterly experienced suppression of their fundamental freedoms and rights and witnessed brutal crackdowns of pro-freedom movements in Iran. I deeply regret to say that extensive and systematic violations of human rights, persecutions, unfair trials, unfounded imprisonments, tortures, rapes, and extrajudicial executions still continue despite the pledges Mr. Rouhani had made to change this trend during his election campaign in 2013.    Regardless of some rare cosmetic and non-systemic release of a dozen of well-known prisoners in 2013 and 2014, the human rights abuses have not only continued but also increased in many respects, including but not limited to imprisonment of human rights activists, journalists, bloggers, university students and teachers, workers, ethnic and religious minorities, and political opposition.    In 2014, the cases of arrest, detention, and imprisonment of activists illustrate a 74-percent increase as compared to 2013. This average increase comprises 53 percent increase in ethnic minorities cases, 10 percent in religious, 93 percent students, 410 percent freedom of expression and conscience, and 354 percent in labor activists cases.    Another human rights violation in Iran includes persistent and pervasive assault on women on a continued basis under the pretext of disrespecting hijab, education and employment segregation, and being banned from appearing on stage for musical performances.    Torture of political prisoners continues to coerce fabricated confessions that are then used to justify brutal crackdowns. According to first hand reports received from former political prisoners, the main methods of torture include whipping and assault, sexual torture including rape, and psychological torture such as prolonged solitary confinement. These reports are also in conformity with the reports by Dr. Shaheed, the U.N. Special Rapporteur on the Situation of Human Rights in Iran.    Execution in Iran has increased from 544 known cases in 2012 to more than 800 known cases in 2014, it being the highest per capita rate in the world. The numbers are however suspected to be higher since many of these executions are carried out in secret and the regime has consistently refrained from releasing numbers and denied the U.N. Special Rapporteur's access to the country.    These are only examples of a range of human rights violation categories. Such extensive and systematic violations of human rights should not come as a surprise. Despite talk of moderation, Rouhani has indulged impunity and rewarded the perpetrators of such grave abuses. His present Justice Minister Mr. Pourmohammadi who played, as a member of the notorious ``death committee,'' a key role in the 1988 prison massacre, has been appointed by this very ``moderate'' government.    In the end, I cordially submit that a standing subcommittee be formed under the Subcommittee on the Middle East and North Africa in order to monitor and take all the necessary measures to draw the world's attention to the grave human rights abuses in Iran. Enclosed I have submitted the first two proposals to be put on the docket of this subcommittee. Thank you very much.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Smith. Thank you very much.    Yes, thank you so much for that testimony. Both of you brought up the fact that the Justice Minister is in this ``moderate'' government serving in a high position despite his horrific past.    I would like to now ask Mr. Vance if you would proceed.</t>
   </si>
   <si>
-    <t>Vance</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Vance. Chairman Smith, Chairman Ros-Lehtinen and also Chairman Chabot, I would like to thank you for giving me the opportunity to testify on the situation of the Baha'is of Iran.    A little background, I think, is appropriate. The Baha'i Faith is an independent world religion with over 5 million followers in over 200 countries and territories representing virtually every racial, ethnic, and national group on the planet.    The faith originated in Iran. It spread rapidly in the mid-1840s immediately after its inception and included several notable clerics among its initial adherents. This triggered a violent reaction instigated or supported by a majority of the clergy, during which some 20,000 Baha'is were killed over little more than a decade.    The primary reason that Baha'is are persecuted is theological. Most of the Islamic clergy in Iran believes that Islam is the final religion of God. The Baha'i Faith, a religion that arose after Islam, is therefore viewed by most of Iran's clergy as heresy and blasphemy, and Baha'is are viewed as apostates.    In addition, Iran's clerics view certain teachings of the Baha'i Faith as threatening. For instance, the Baha'i Faith does not have a clergy and holds that each individual has the duty to investigate spiritual truth and arrive at his or her own beliefs. In addition, Baha'is believe strongly in the equality of women and men.    Now while the intense brutality against Baha'is began to subside toward the end of the nineteenth century, unequal treatment, social hostilities and sporadic surges in violence continued during much of the twentieth century. After the Islamic Revolution of 1979, Baha'is became the target of severe and systematic state-sponsored persecution and it became official government policy to oppress Baha'is.    In the years following the revolution, over 200 Baha'is were killed, the majority by execution. Thousands of Baha'is were imprisoned, many of them tortured. Baha'i holy places were destroyed and Baha'i cemeteries have repeatedly been attacked and desecrated, including the current ongoing excavation of the large Baha'i cemetery in Shiraz.    The government also made and continues to make concerted efforts to impoverish the Baha'i community. After the revolution, Baha'is were dismissed from government jobs and denied pensions and private employers have been pressured not to hire Baha'is. Baha'is still suffer frequent raids on their homes and businesses, including a recent spate of shop closures, and their property is routinely seized without compensation.    Baha'is were also dismissed from university positions after the revolution, and Baha'i students have been excluded from the nation's universities and continue to be so. The seven members of the former ad hoc leadership group of the Baha'i community are among the 100 Baha'is currently imprisoned in Iran, nearly twice the number that were imprisoned at the end of 2010.    In the last several months there has also been a disturbing surge in anti-Baha'i hate propaganda in state-sponsored media outlets. In 2010 and 2011, approximately 22 anti-Baha'i pieces were appearing every month. In 2014, the number of anti-Baha'i pieces rose to approximately 401 per month, 18 times the previous level.    In July 2013, the Supreme Leader Ali Khamenei reissued a religious decree prohibiting Iranian Muslims from associating with members of the ``deviant sect,'' a well-known reference to Baha'is. The clerical establishment has long promoted the view that Baha'is are ritually unclean and that the blood of Baha'is is mobah, meaning that it can be spilled with impunity.    Last October, the review of Iran's human rights record before the U.N. Human Rights Council revealed that Iran had failed to live up to dozens of promises made during its last Universal Periodic Review in 2010, including several related to the Baha'is. Yet in an astonishingly blatant falsehood, Iran's written response to the council declared ``minorities, including Baha'is, enjoyed a full range of opportunities and privileges.''    It is our hope that at the follow-up session on Iran that will be held next month, responsible nations will emphasize the persecution of the Baha'is and countless other individuals and will hold the Iranian Government to account for its gross violations of human rights. Thank you very much, Mr. Chairman.</t>
   </si>
   <si>
@@ -293,9 +266,6 @@
   </si>
   <si>
     <t>412526</t>
-  </si>
-  <si>
-    <t>Ron DeSantis</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. DeSantis. Thank you Madam Chairman.    Mr. Sazegara, when you joined the Islamic Revolution in 1979, you were there it seemed to be from, I read your bio, about 10 years before you left?</t>
@@ -799,11 +769,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -823,13 +791,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -851,11 +817,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -875,13 +839,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -903,11 +865,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -927,13 +887,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -955,11 +913,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -979,13 +935,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1007,11 +961,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1031,13 +983,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1059,11 +1009,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1085,11 +1033,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>34</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1111,11 +1057,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1137,11 +1081,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>37</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1163,11 +1105,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1189,11 +1129,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>40</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1215,11 +1153,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1239,13 +1175,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1267,11 +1201,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>34</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1291,13 +1223,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1319,11 +1249,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>34</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1343,13 +1271,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1371,11 +1297,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>34</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1395,13 +1319,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1423,11 +1345,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>34</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1447,13 +1367,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1475,11 +1393,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>34</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1499,13 +1415,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1527,11 +1441,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>34</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1551,13 +1463,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1579,11 +1489,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>34</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1603,13 +1511,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1631,11 +1537,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>37</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1655,13 +1559,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1683,11 +1585,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>37</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1707,13 +1607,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1735,11 +1633,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>37</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1759,13 +1655,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1787,11 +1681,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>37</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1811,13 +1703,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1839,11 +1729,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>37</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1863,13 +1751,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1891,11 +1777,9 @@
       <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
-        <v>37</v>
-      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1915,13 +1799,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1943,11 +1825,9 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" t="s">
-        <v>37</v>
-      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1967,13 +1847,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1995,11 +1873,9 @@
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="G48" t="s">
-        <v>37</v>
-      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2019,13 +1895,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2047,11 +1921,9 @@
       <c r="F50" t="s">
         <v>11</v>
       </c>
-      <c r="G50" t="s">
-        <v>40</v>
-      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2071,13 +1943,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2099,11 +1969,9 @@
       <c r="F52" t="s">
         <v>11</v>
       </c>
-      <c r="G52" t="s">
-        <v>40</v>
-      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2123,13 +1991,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2149,13 +2015,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>22</v>
-      </c>
-      <c r="G54" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2177,11 +2041,9 @@
       <c r="F55" t="s">
         <v>11</v>
       </c>
-      <c r="G55" t="s">
-        <v>37</v>
-      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2203,11 +2065,9 @@
       <c r="F56" t="s">
         <v>11</v>
       </c>
-      <c r="G56" t="s">
-        <v>34</v>
-      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2227,13 +2087,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>22</v>
-      </c>
-      <c r="G57" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2255,11 +2113,9 @@
       <c r="F58" t="s">
         <v>11</v>
       </c>
-      <c r="G58" t="s">
-        <v>37</v>
-      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2279,13 +2135,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>22</v>
-      </c>
-      <c r="G59" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2307,11 +2161,9 @@
       <c r="F60" t="s">
         <v>11</v>
       </c>
-      <c r="G60" t="s">
-        <v>37</v>
-      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2333,11 +2185,9 @@
       <c r="F61" t="s">
         <v>11</v>
       </c>
-      <c r="G61" t="s">
-        <v>34</v>
-      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2357,13 +2207,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>22</v>
-      </c>
-      <c r="G62" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2385,11 +2233,9 @@
       <c r="F63" t="s">
         <v>11</v>
       </c>
-      <c r="G63" t="s">
-        <v>37</v>
-      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2409,13 +2255,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>22</v>
-      </c>
-      <c r="G64" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2437,11 +2281,9 @@
       <c r="F65" t="s">
         <v>11</v>
       </c>
-      <c r="G65" t="s">
-        <v>37</v>
-      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2463,11 +2305,9 @@
       <c r="F66" t="s">
         <v>11</v>
       </c>
-      <c r="G66" t="s">
-        <v>34</v>
-      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2487,13 +2327,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>22</v>
-      </c>
-      <c r="G67" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2515,11 +2353,9 @@
       <c r="F68" t="s">
         <v>11</v>
       </c>
-      <c r="G68" t="s">
-        <v>34</v>
-      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2539,13 +2375,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>22</v>
-      </c>
-      <c r="G69" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2565,13 +2399,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>18</v>
-      </c>
-      <c r="G70" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2591,13 +2423,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>92</v>
-      </c>
-      <c r="G71" t="s">
-        <v>93</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2619,11 +2449,9 @@
       <c r="F72" t="s">
         <v>11</v>
       </c>
-      <c r="G72" t="s">
-        <v>37</v>
-      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2643,13 +2471,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>92</v>
-      </c>
-      <c r="G73" t="s">
-        <v>93</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2671,11 +2497,9 @@
       <c r="F74" t="s">
         <v>11</v>
       </c>
-      <c r="G74" t="s">
-        <v>37</v>
-      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2695,13 +2519,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>92</v>
-      </c>
-      <c r="G75" t="s">
-        <v>93</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2723,11 +2545,9 @@
       <c r="F76" t="s">
         <v>11</v>
       </c>
-      <c r="G76" t="s">
-        <v>37</v>
-      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2747,13 +2567,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>92</v>
-      </c>
-      <c r="G77" t="s">
-        <v>93</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2775,11 +2593,9 @@
       <c r="F78" t="s">
         <v>11</v>
       </c>
-      <c r="G78" t="s">
-        <v>37</v>
-      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2799,13 +2615,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>92</v>
-      </c>
-      <c r="G79" t="s">
-        <v>93</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2827,11 +2641,9 @@
       <c r="F80" t="s">
         <v>11</v>
       </c>
-      <c r="G80" t="s">
-        <v>37</v>
-      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2851,13 +2663,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
+        <v>83</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
         <v>92</v>
-      </c>
-      <c r="G81" t="s">
-        <v>93</v>
-      </c>
-      <c r="H81" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2879,11 +2689,9 @@
       <c r="F82" t="s">
         <v>11</v>
       </c>
-      <c r="G82" t="s">
-        <v>37</v>
-      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2903,13 +2711,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>92</v>
-      </c>
-      <c r="G83" t="s">
-        <v>93</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2931,11 +2737,9 @@
       <c r="F84" t="s">
         <v>11</v>
       </c>
-      <c r="G84" t="s">
-        <v>37</v>
-      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2955,13 +2759,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>92</v>
-      </c>
-      <c r="G85" t="s">
-        <v>93</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2983,11 +2785,9 @@
       <c r="F86" t="s">
         <v>11</v>
       </c>
-      <c r="G86" t="s">
-        <v>37</v>
-      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3007,13 +2807,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>92</v>
-      </c>
-      <c r="G87" t="s">
-        <v>93</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3035,11 +2833,9 @@
       <c r="F88" t="s">
         <v>11</v>
       </c>
-      <c r="G88" t="s">
-        <v>37</v>
-      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3059,13 +2855,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>92</v>
-      </c>
-      <c r="G89" t="s">
-        <v>93</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3087,11 +2881,9 @@
       <c r="F90" t="s">
         <v>11</v>
       </c>
-      <c r="G90" t="s">
-        <v>37</v>
-      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3111,13 +2903,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>92</v>
-      </c>
-      <c r="G91" t="s">
-        <v>93</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3139,11 +2929,9 @@
       <c r="F92" t="s">
         <v>11</v>
       </c>
-      <c r="G92" t="s">
-        <v>37</v>
-      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3163,13 +2951,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>92</v>
-      </c>
-      <c r="G93" t="s">
-        <v>93</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3191,11 +2977,9 @@
       <c r="F94" t="s">
         <v>11</v>
       </c>
-      <c r="G94" t="s">
-        <v>34</v>
-      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3215,13 +2999,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>92</v>
-      </c>
-      <c r="G95" t="s">
-        <v>93</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3243,11 +3025,9 @@
       <c r="F96" t="s">
         <v>11</v>
       </c>
-      <c r="G96" t="s">
-        <v>37</v>
-      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3267,13 +3047,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>92</v>
-      </c>
-      <c r="G97" t="s">
-        <v>93</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3295,11 +3073,9 @@
       <c r="F98" t="s">
         <v>11</v>
       </c>
-      <c r="G98" t="s">
-        <v>34</v>
-      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3319,13 +3095,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>92</v>
-      </c>
-      <c r="G99" t="s">
-        <v>93</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3347,11 +3121,9 @@
       <c r="F100" t="s">
         <v>11</v>
       </c>
-      <c r="G100" t="s">
-        <v>34</v>
-      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3371,13 +3143,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>92</v>
-      </c>
-      <c r="G101" t="s">
-        <v>93</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3399,11 +3169,9 @@
       <c r="F102" t="s">
         <v>11</v>
       </c>
-      <c r="G102" t="s">
-        <v>34</v>
-      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3423,13 +3191,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>92</v>
-      </c>
-      <c r="G103" t="s">
-        <v>93</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3451,11 +3217,9 @@
       <c r="F104" t="s">
         <v>11</v>
       </c>
-      <c r="G104" t="s">
-        <v>34</v>
-      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3475,13 +3239,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>92</v>
-      </c>
-      <c r="G105" t="s">
-        <v>93</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3503,11 +3265,9 @@
       <c r="F106" t="s">
         <v>11</v>
       </c>
-      <c r="G106" t="s">
-        <v>37</v>
-      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3527,13 +3287,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>92</v>
-      </c>
-      <c r="G107" t="s">
-        <v>93</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3555,11 +3313,9 @@
       <c r="F108" t="s">
         <v>11</v>
       </c>
-      <c r="G108" t="s">
-        <v>40</v>
-      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3579,13 +3335,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>92</v>
-      </c>
-      <c r="G109" t="s">
-        <v>93</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3605,13 +3359,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G110" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg93535.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93535.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="136">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,21 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Smith</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Smith. The subhearing of the joint subcommittees will come to order, and good afternoon to everybody.    At a time when the administration seems keen to reach a nuclear accord that relies at least to some extent on trust, although there are some verification aspects to it, with the Iranian regime and perhaps even a de facto collaboration in the fight against ISIS, it is wise to consider and scrutinize the dismal human rights record of this country which we are currently conducting negotiations with.    How they treat their own people is illustrative of how they see and will treat outsiders. This hearing provides a critical examination of human rights in Iran, which is important and necessary in its own right, and also places in context the administration's efforts toward a nuclear deal.    According to the report by the U.N. Special Rapporteur on Human Rights in Iran, between July 2013 and June 2014, at least 852 people were executed in Iran. Shockingly, some of those executed were children under the age of 18. Iranian human rights activists place the number of people executed by the regime at 1,181.    The current Department of State human rights report states that Iranian human rights violations include disappearances; cruel, inhuman, or degrading treatment; mistreatment of prisoners including judicially sanctioned amputation and flogging; rape; politically motivated violence and repression; harsh and life-threatening conditions in detention and prison facilities, with instances of death in custody; arbitrary arrests and lengthy pretrial detention, sometimes incommunicado.    While the Iranian Constitution grants equal rights to all ethnic minorities and allows for minority languages to be used in the media and in schools, minorities do not enjoy equal rights and the regime consistently denies their right to use their language in school. In addition, a 1985 law prohibits non-Shi'a ethnic minorities from fully participating in civic life. That law and its associated provisions make full access of employment, education and other areas conditional on a devotion to the Islamic Republic and the tenets of the Shi'a Islam.    The regime disproportionately targets minority groups including Kurds, Arabs, Azeris, and others, for arbitrary arrest, prolonged detention, and physical abuse. These groups report political and socioeconomic discrimination particularly in their access to economic aid, business licenses, university admissions, permission to publish books, and housing and land rights.    Because of the severe religious freedom abuses, our Government has designated Iran as a Country of Particular Concern since 1999, each year. Frequently, the arrest and harassment of members of religious minorities has continued following a significant increase in 2012. The government severely restricts religious freedom, and there have been reports of imprisonment, harassment, intimidation, and discrimination based on those faith beliefs.    There has been continued reports of government charging religious and ethnic minorities with ``enmity against God,'' ``anti-Islamic propaganda,'' or vague national security crimes for their religious activities. Those reportedly arrested on religious grounds face poor prison conditions and treatment, as with most prisoners of conscience.    One of the imprisoned on religious grounds is Pastor Saeed Abedini, a U.S. citizen and father of two--Rebekkah and Jacob--and a Christian imprisoned in Iran because of his, and only because of, his faith. Pastor Abedini was imprisoned by the Iranian regime nearly 1,000 days ago when members of the Revolutionary Guard pulled him off a bus and then placed him under house arrest. He later was taken away in chains to Evin prison, where he endured periods of solitary confinement, beatings, internal bleeding, death threats, and continued psychological torture all because he would not deny his Christian faith.    What was Pastor Abedini's crime? According to the court, he was a threat to the security of Iran because of his leadership role in Christian churches between 2000 and 2005. And I would note parenthetically that he was allowed to go back to build an orphanage, got the approval and then had that all reversed and then he was arrested.    President Obama promised Pastor Abedini's son Jacob that he would do all he can to gain his father's release by the boy's birthday next month. Yesterday, the Secretary of State in answer to a question I posed said the administration was working quietly to gain Pastor Abedini's release as soon as possible. Let us hope.    Meanwhile, Iran is repeatedly cited for virtually unrelenting repression of the Baha'is community which Iran's Shiite Muslim clergy views as a heretical sect. Baha'is number about 300,000-350,000. At least 30 Baha'i remained imprisoned and 60 were arrested in 2012. A February 2013 U.N. report said that 110 Baha'is were in jail. They had said that 133 were expected to start serving jail time.    Since the 1979 Islamic Revolution, the regime has executed more than 200 Baha'is simply because of their faith. The regime frequently prevents many Baha'is from leaving the country, harasses them, persecutes them, and generally disregards their property rights. I would note parenthetically that when Ronald Reagan was President and was the first one to raise the issue at the Presidential level, I was there at the White House when he so designated the defense of the Baha'i as a very vital, important interest of the United States and all concerned about human rights.    Iranian courts offer no recourse to the monstrous violations of human rights because without an independent judiciary Iranians and foreigners tied to those courts are routinely denied fair trials sometimes resulting in executions without due process.    I'd like to now yield to Mr. Deutch for any opening comments he may have.</t>
   </si>
   <si>
     <t>412385</t>
   </si>
   <si>
+    <t>Deutch</t>
+  </si>
+  <si>
+    <t>Theodore</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Deutch. Thank you. Thank you Chairman Smith, Chairman Ros-Lehtinen and Ranking Member Bass for holding today's joint hearing. It is very important that our two subcommittees come together today to shine a light on Iran's atrocious human rights record. And I apologize because this is an issue I care deeply about but I'm going to be running back and forth to another hearing taking place at the same time.    While the world anxiously awaits to see what if any agreement will be reached on Iran's nuclear weapons program, this hearing serves as an important reminder that even beyond the dangerous and illicit program Iran's regime routinely violates human rights of the Iranian people. At the same time that the news is focused on Geneva, back in Iran the human rights situation is as dismal as ever.    We are well past the Ahmadinejad period in Iran where inflammatory statements made criticism easy. Enough time has passed to see what the Rouhani administration can do. Unfortunately it appears that Rouhani has fallen short on many of his campaign promises, hamstrung perhaps by the Supreme Leader's ultimate and absolute control. The Iranian economy continues to suffer due to the intransigence of its leaders, and the Iranian people remain repressed and restricted by the ultra-conservative social policies of the Ayatollah.    Today's hearing serves as an important reminder that even if we were to resolve the nuclear issue, even if hypothetically the P5+1 reaches an acceptable nuclear deal, Iran still remains a global leader in terrorism financing and human rights abuses. Iran would still be willing to sentence a juvenile to death for the crime of corruption on earth and imprison hundreds of political prisoners.    This is a government that refuses for its own people some of the most fundamental human rights, a government that is willing to perpetuate misogynistic, racist, and homophobic policies, and one that will relentlessly defend its right to possess nuclear capabilities while the Supreme Leader continues to decry Israel's right to simply exist.    Showing a complete disregard for the principle of the right to life, Iran continues to execute its citizens at alarming rates. Official sources put the number of executions in 2014 at 200, but the actual number could likely be over 700. Many of those individuals were charged with questionable or vague offenses, like a woman last October that was convicted of killing a man that she claimed was in the act of raping her. With dozens and dozens of offenses that carry capital punishment, Iran's judiciary has shown just how easy it is for an individual to be put to death, with over 80 Iranians executed in January of this year alone.    The government allows no room for political dissent or critical belief. The regime continues to censor journalists and political activists and to deny its citizens their freedom of speech and opinion. Iran's unfounded arrest and subsequent jailing of Washington Post journalist Jason Rezaian on trumped up charges is despicable and must be condemned by all responsible nations.    The Internet is certainly not an open and safe space in Iran. Anything from a Facebook post to a viral video can land an individual in jail for years. And with one of the highest incarceration rates in the world, Iran certainly exercises their willingness to imprison individuals in order to keep absolute control over media and news content consumed by the people.    Another favorite tactic of the Iranian regime is targeting ethnic and religious minorities. The country's largest non-Muslim religious minority, people of the Baha'i Faith, face particularly hostile treatment. This community is denied freedom of religion, they live under constant fear of arrest, attacks, and destruction of their religious sites. Over 100 Baha'is are currently held in detention and many international reports have criticized Iran's failure to ensure that they receive a fair trial and adequate access to counsel.    Many other groups also face bigotry and targeted discrimination. Christians and Sunni Muslims, Arabs, Kurds, and Azeris, and many more religious and ethnic minority groups are also frequently targeted by the regime, and many are forced to hide signs of their identity while in public.    Women are still subservient to men in many aspects of daily life, and as we witnessed from the gruesome pictures of acid attacks last fall, women are still targeted for violating social norms as set by the state's religious interpretations.    For the LGBT community the environment in Iran is bleak. LGBT individuals face discrimination from their government but also from their friends and families. They can't turn to the courts because same-sex relationships are criminalized. They can't report attacks to law enforcement authorities out of fear that they may be arrested for being LGBT.    And there's little information or support available on the ground. The head of Iran's human rights council made the government's position clear when he said that universal human rights should not be extended to what he referred to as the homosexual lifestyle.    Yesterday during another Foreign Affairs Committee hearing, I implored Secretary Kerry to continue to raise the case of Bob Levinson, an American citizen and my constituent, who has been missing in Iran since March 2007, while our negotiators sit across the table from the Iranians. Eight years later Bob is still not home. Despite indications by the Iranian Government of their willingness to assist in this case, we're nearing the eighth anniversary of his disappearance and we see no positive signs. We must continue to advocate for help in Bob's case and for the release of the other American citizens unjustly held in Iran, Amir Hekmati and Pastor Abedini.    Last November we passed a resolution condemning the Iranian Government for these and many more human rights violations, a long list to be sure, but it is important that we as a body consistently condemn these policies and practices. Unfortunately the same is not the case for the rest of the world. The U.N. General Assembly's Third Committee also voted last fall in a resolution on Iran's human rights abuses. And while it passed with 78 votes, 69 countries abstained and 35 countries voted against it.    Finally, as we get closer to the deadlines for negotiations with Iran, I urge my colleagues in Congress and our negotiators in Geneva to not take our eyes off what is happening on the ground in Iran. With such deplorable human rights abuses occurring daily and millions of Iranians repressed and facing discrimination, we've got to keep the global spotlight on Iran and condemn the government's disregard for basic human rights. That is what today's hearing will do.    I want to thank again the chairman. I want to thank our witnesses. I look forward to hearing from you today.</t>
   </si>
   <si>
@@ -67,6 +79,12 @@
     <t>400344</t>
   </si>
   <si>
+    <t>Ros-Lehtinen</t>
+  </si>
+  <si>
+    <t>Ileana</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Ros-Lehtinen. Thank you so much, Chairman Smith, and thank you for holding this joint subcommittee hearing on this important topic. And in fact this is the third hearing that Chairman Smith and I have held on the issue of human rights in Iran, and I am appreciative of your continued dedicated leadership on this issue.    I want to first start with some good news. We confirmed yesterday that Rozita Vaseghi was finally released last month after a 5-year sentence in prison in Iran. Rozita is a member of the persecuted Baha'i community that you have heard about from my colleagues. They are Iran's largest non-Muslim religious minority and I adopted her as a prisoner of conscience last year as part of the Tom Lanto Human Rights Commission's Defending Freedoms project.    And while I am relieved, all of us are, that Rozita has been released and will be able to get the health care that she needs after years of brutal mistreatment and solitary confinement, we know that her ordeal is not over. She has not been given any paperwork. Authorities have not told her whether she really might continue to serve a second 5-year term or even an arbitrary 2-year term. She fears that she could be thrown back in prison at any time, so we continue to pray for Rozita and for so many others as well.    Mr. Chairman, as you know the Iranian regime uses tactics like those that they used against Rozita every day to instill fear in the people of Iran. Iran's human rights practices are amongst the worst in the world. But in its desperation to secure a nuclear deal, the Obama administration has completely ignored the issue of human rights in Iran as well as many other concerns that we have with the Iranian regime.    And this serves as another example of the policy of the White House to look the other way on human rights violations as part of any negotiation, and that was evident in Cuba. The administration is hosting regime officials tomorrow after the Castro state security folks have arrested over 300 civil society activists in the last 3 weeks. In the last 3 weeks. And delegations have come and gone and folks say they are all in favor of human rights, but apparently not while there. Among them was Berta Soler who testified before your subcommittee, Mr. Chairman, 3 weeks ago. In these secret talks with Cuba, the administration showed its willingness to trade away the store for little concessions in return.    So the question becomes what will the administration trade next with the Iran nuclear deal? What will the administration give up in return for those American citizens who are being held in Tehran? The parallels between how the White House is negotiating in secret with Cuba and Iran at the same time--well, the parallels are striking.    What the administration has never understood or really has chosen to ignore is that Congress passed strong sanctions laws not just to stop Iran's nuclear program but also its ballistic missile program, its weapons program, its worldwide support for terror, its destabilization of the region, its abysmal human rights record. And as the author of many pieces of Iran related sanctions legislation, I can tell you that from the beginning the administration fought Congress tooth and nail to stop any sanctions at all.    And so it is of no surprise to anyone that the human rights issue is not even a part of the discussion when we talk about the nuclear deal. And now it appears increasingly likely that the administration will give away what little leverage we have and leave the ayatollahs free to continue to oppress the people of Iran, to continue jailing, torturing, and executing dissidents, prisoners of conscience, religious minorities, and ethnic minorities.    It is truly shameful to hear our own State Department talk about the importance of global human rights, talk about it when it does absolutely nothing and in fact is indirectly legitimizing the continued repression of the people of Iran.    The Obama administration after failing to support the Iranian people's right of self-determination during the 2009 Green Movement rushed to brand Rouhani as a moderate saying that human rights under this Ayatollah lackey would somehow improve.    But what we have seen, Mr. Chairman, is just the opposite. Human rights under Rouhani have actually gotten worse. There have been more crackdowns on free speech, more arrests, more jailings of journalists, more jailings of political prisoners, more persecution of women, the LGBT community, religious minorities, ethnic minorities, more executions.    According to the latest report of Human Rights Watch, the real number of executions in Iran last year is thought to be over 600 including eight who were under the age of 18. We still cannot confirm the execution last week of Saman Naseem, a 22-year-old ethnic Kurd who was 17 when he was arrested. Bloggers and social media users have also suffered under Rouhani with security forces cracking down sharply on any dissent, especially those considered to be leading members of the opposition.    Members of the Baha'i community like Rozita are especially targeted with 100 Baha'is currently in prison. Baha'i cemeteries are systematically destroyed, including last year's bulldozing of over 1,000 graves in one city in order to build a cultural and sports complex. And May 14th is the 7-year anniversary of the imprisonment of the Baha'i Seven, the former leadership group who have been serving 20-year sentences for advocating on behalf of their religious beliefs.    The regime hopes that we will move on, we will forget the people of Iran as the administration in the U.S. continues to negotiate solely on the nuclear program and there are at least four unjustly jailed Americans in Iranian prisons. And we've mentioned them here.    Saeed Abedini, a Christian pastor who has been in jail since 2012 has been tortured and beaten by prison guards and inmates. Marine veteran Amir Hakmati who has been held since 2011. His health is rapidly deteriorating. He is also beaten and tortured. Jason Rezaian, the Washington Post bureau chief arrested last year, still has not been charged but he is in solitary confinement and his health is declining. And of course the constituent of my good friend Ted Deutch, Bob Levinson, a south Florida resident who has been held captive by the Iranian regime since March 9, 2007, making him the longest held hostage in U.S. history. These four U.S. citizens are just a few of the millions who continue to suffer under the Iranian regime, and tragically that suffering is not part of the administration's calculus.    Human rights are an essential factor in long term stability, should be a key objective in our foreign policy strategy, not a simple resolution to pass but something to live up to every day both for those suffering under tyranny and for our own national security.    Mr. Chairman, we must not allow the human rights conditions in Iran to be ignored continually by this administration. Thank you, sir.</t>
   </si>
   <si>
@@ -76,6 +94,12 @@
     <t>412470</t>
   </si>
   <si>
+    <t>Cicilline</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Cicilline. Thank you Mr. Chairman, and thank you to you and to Ranking Member Deutch, and thank you to Chairman Ros-Lehtinen for convening this hearing and for calling attention to this very important issue.    While the nuclear negotiations with Iran have dominated discussions in this country of late, the fact remains that Iran remains one of the world's worst perpetrators of human rights abuses and it is critical that we continue to bring attention to this issue. For those who dare to criticize the regime of Supreme Leader Khamenei or attempt to challenge the government and propose conformity, they face harsh consequences sometimes even including death.    I am particularly concerned about the horrific disregard for basic political expression, which according to the current State Department human rights report, they characterize it as the most egregious human rights problems were the government's manipulation of the electoral process, which severely limited citizens' right to change their government peacefully through free and fair elections; restrictions on civil liberties including the freedoms of assembly, speech, and press; and disregard for the physical integrity of persons whom it arbitrarily and unlawfully detained, tortured, and killed. And as was explained, including four American citizens currently being held.    In addition, I am particularly concerned about the rights of LGBT persons and other vulnerable minority groups in the country, in a country that imposes strict, so-called morality codes, does not respect basic freedom of expression or religion and limits access to the outside world.    I thank the witnesses for being here today and look very much forward to your testimony, and again thank the chairman and ranking member for calling this hearing. And with that I yield back.</t>
   </si>
   <si>
@@ -85,6 +109,12 @@
     <t>400071</t>
   </si>
   <si>
+    <t>Chabot</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Chabot. Thank you, Mr. Chairman. I want to commend you and Chairman Ros-Lehtinen for continuing this series of hearings on Iran, perhaps the most dangerous regime in the world today.    Iran continues to be one of the world's leading abusers of fundamental human rights. The example of the Baha'is which both you and Chairman Ros-Lehtinen talked about already, it has already been referred to, but unfortunately it is only one of many of these abuses which are taking place today.    The regime persecutes anybody who dares to speak publicly or not so publicly against the regime and often issues death sentences to Iranians who are charged with insulting the Islam. It has become pretty clear that the so-called moderate Rouhani is just another in a long list of Iranian dictators whose contempt for his own people's fundamental human rights and religious freedom is readily apparent.    When I chaired the Middle East Subcommittee in not the past, but the one before that Congress, as I had the opportunity to spend about an hour with Prime Minister Netanyahu in his office, and some of the things he told me were shocking and I hadn't heard a lot of them in the news. And one in particular that stands with me to this day was the fact that during the Green Movement they had videos, the government did, and so when they were over we might have thought it was over. And what they were doing is systematically identifying those people that were in the crowds and that were supporters of the Green Movement and they were disappearing and in many instances along with their families, and this was something that got very little attention.    And my colleague, Ms. Ros-Lehtinen, mentioned this administration's, for lack of a better term, dropping the ball, in many instances when it comes to Iran. That was one in particular. I think we had an opportunity to actually speak out and do something on behalf of that movement. That was an opportunity that was missed and a lot of people unfortunately have paid a very high price as a result of that inaction.    And so I want to thank you for holding this hearing and I yield back.</t>
   </si>
   <si>
@@ -94,24 +124,39 @@
     <t>412636</t>
   </si>
   <si>
+    <t>Trott</t>
+  </si>
+  <si>
+    <t>Dave</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Trott. I want to thank Chairman Smith and Chairman Ros-Lehtinen for holding this hearing. And there's no question that Iran is guilty of egregious human rights violations. They continue to manipulate the election process to prevent peaceful and fair elections. They severely restrict civil liberties, commit repeated religious freedom abuses, show disrespect for the physical integrity of its people through arbitrary detentions and torture and killing.    Other problems include sanctioned amputations and rape and flogging and punishment for politically motivated violence. It is not surprising that the World Press Freedom Index ranked Iran 173rd out of 180 countries with respect to human rights violations.    This hearing is timely for two reasons. First, we have to continue to shine a light and show the terrible abuses that are happening with respect to human rights in Iran, and secondly, Secretary Kerry continues to tell us that we can trust and rely on our negotiations with them and that they need more time. And for me, I submit that a country that is guilty of such egregious abuse cannot be trusted, should not be trusted, and is not worthy of the respect of the world community. Thank you for being here today.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Smith. Thank you very much, Mr. Trott.    I would like to now introduce our very distinguished panel beginning first with Shayan Arya who is an expert in Iran, who is also a human rights and political activist. He was elected to the Central Committee of the Constitutionalist Party of Iran in which he served multiple terms. He has co-authored numerous articles focusing on the Iranian regime's human rights violations, internal politics, and terrorist activities. The articles have been published around the world in publications such as the Wall Street Journal, The Australian, the Washington Times, Jerusalem Post, and Strategic Outlook.    We will then hear from Mr. Mohsen Sazegara who was part of the 1979 Islamic Revolution and one of the founders of the Islamic Revolutionary Guards. He held several positions within the regime in the first decade after the revolution, but declined to accept any positions in it after 1988. He has published three newspapers and two monthly magazines which were all shut down by the regime, and has been arrested and imprisoned four times in Iran. While out of the country for medical treatments in 2004, he was sentenced to 6 years of jail. He has continued his political opposition and is currently the president of the Research Institute on Contemporary Iran.    Then we will hear from Mr. Anthony Vance, who oversees the development of the U.S. Baha'i Office of Public Affairs' programs and strategic direction. He joined the office in 2010 after spending 4 years at the Baha'i World Center in Haifa, Israel, representing it to the diplomatic community, civil society, and to the host government. A lawyer by training, he spent 21 years in the U.S. Agency for International Development in legal and managerial positions in Washington, Cote d'Ivoire, Kenya, Botswana, and Egypt.    Mr. Arya, if you could begin.</t>
   </si>
   <si>
+    <t>Arya</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Arya. Chairman Smith, Chairman Ros-Lehtinen, and honorable members of the subcommittees, it is really an honor to appear before you today to discuss the human rights situation in Iran under the Islamic regime. It is an important issue that has unfortunately been overlooked by the international community in light of the current negotiations between Iran and P5+1 since the election of Hassan Rouhani as President of Iran in 2013.    Since that time, the Iranian regime, its supporters and lobbyists have tried vigorously to convince the international community in general and the U.S. administration in particular that something has fundamentally changed for the better in Iran, that the Iran Islamic Republic can be trusted to act according to Iran's national interests and not its ideological ones. Unfortunately however the regime's actions speak louder than its words.    Iran, after China, currently has the highest number of executions in the world, and since Rouhani's election there has not been a reduction in that statistic. To the contrary, there has been a significant increase. In 2014 alone, eight individuals believed to be under 18 years of age at the time of their alleged crimes were reportedly executed. Human rights activists in Iran put the total number of executions for 2013 and 2014 at 1,181 people.    The execution of juveniles is not the only crime committed by the Islamic Republic. The Islamic regime systematically tries to brainwash children. On this important issue I would like to draw your attention to the research done by the Institute for Monitoring Peace and Cultural Tolerance in School Education, IMPACT-se. The Islamic Republic systematically indoctrinates children and prepares them for war and encourage the hostile attitude toward non-Muslims with children instructed not to take unbelievers, Jews and Christians as friends.    Again, against this background is it any surprise that almost all religious minorities in Iran suffer officially sanctioned discriminations? Baha'is are banned from all government positions, are not allowed to have places of worship, and are banned from teaching the faith and even attend universities. In some cases they have even been denied burial sites and their cemeteries are systematically destroyed.    Evangelical Christians are suffering as well. Even Muslims who do not conform to the official interpretation of Islam face heresy charges. Last September, Mohsen Amir-Aslani was executed for insulting the prophet Jonah by declaring that his story in Koran was symbolic rather than factual.    Even traditional Shiite clerics who reject official interpretation of Islam are persecuted. Ayatollah Hossein Kazemeyni Boroujerdi is a traditional Shiite cleric who openly questions the legitimacy of the Islamic Republic and advocates a secular regime and has been imprisoned since 2007. Followers of Ahl-e Haqq religion are also under enormous pressure. Several members of the Ahl-e Haqq community have self-immolated in recent years to protest against religious persecution in Iran.    The Nematollahi-Gonabadi Sufi order is another example. Many members of this Sufi order are presently imprisoned and several places of their worship in Isfahan and other cities have been demolished. Mohammad Ali Taheri, founder of a spiritual group, was also arrested in 2011. In fact yesterday some of his supporters came out in support of him and many of them were arrested, just yesterday.    Iran is one of the few countries in the world that prosecutes lawyers for representing their clients. Ms. Nasrin Sotudeh and Abdolfattah Soltani are good examples. Mr. Soltani, a leading human rights lawyer has even been denied medical attention despite the fact that even prison doctors have written a letter recommending that he be treated outside the prison.    Last March, Maryam Shafipour, 29 years old, was sentenced to 7 years in prison for peaceful protests. Many student activists such as Majid Tavakkoli, Bhareh Hedayat, Sayed Zia Nabavi, Majid Dori, and Navid Khanjani have spent years, years in prisons for no crimes other than exercising their rights to peaceful protest.    A young brilliant scientist, Mr. Omid Kokabee, has been incarcerated in Evin prison since 2011. He was charged with espionage and for refusing not to work on military research projects with the government. That was his only crime.    Atena Farghadani, a children's rights advocate currently is in prison and she is on hunger strike. And what she's asking, not be released but to be moved from Gharchak prison which is a notoriously substandard women prison, to be moved back to Evin prison. And she's in a very dire situation right now from what I heard yesterday.    Political activists such as Heshmatollah Tabarzadi have spent years in prison for their peaceful activities. Just a few days ago, Masood Arab Choobdar, Saeed Shirzad, Hamid Babaei who were exiled from Tehran to Rajaei Shahr prison, which is another notoriously dangerous prison in Iran, they were beaten and severely abused. Another Baha'i prisoner, Shahram Chinian was also beaten, so severely that his face was unrecognizable by his friends.    Last July, Iranian writer Arzhang Davoodi was sentenced to death after spending nearly 11 years in prison on new charges of enmity against God in relation to his political activism and writings in support of a secular system. Journalists are another group that suffer under the Islamic Republic. According to Committee to Protect Journalists currently there are 30 journalists in Iran in prison.    These cases are simply a reflection of the Iranian regime's repressive domestic practices. The main question then is whether these practices are changing and whether Iran's new President Hassan Rouhani is really a reformer. To understand Mr. Rouhani's relationship to the state it is necessary to review his background. He has been a member of Islamic regime's leadership for the past 36 years and therefore has been an integral part of every aggressive move that the Islamic Republic has made since 1982. From creation and training of Hezbollah to the 1983 attack on U.S. and French military forces in Lebanon, the assassination of nearly 200 Iranian dissidents in Europe throughout the 1980s and 1990s, the 1994 bombing in Buenos Aires, and more recently to the Iranian's asymmetric campaign targeting U.S. and coalition forces in Iraq.    It is impossible to believe that Mr. Rouhani had no knowledge of these actions. Rouhani's cabinet choice for the post of Justice Minister, Mostafa Pourmohammadi, speaks volumes to his commitment to the issue of human rights. Pourmohammadi had direct role in the extrajudicial executions of thousands of political prisoners in the 1980s.    As we all know, Iran is the only country in the Middle East where people are by and large are friendly to America, therefore it is crucial that America stands up to the Islamic Republic on this important issue. I would like to encourage the honorable members of the subcommittees on behalf of all those who are suffering in the hands of the Islamic regime to link any easing or lifting of sanctions not just to the outcome of the nuclear negotiations but also to the improvement in the human rights situation in Iran.    With that I would like to thank you again for this opportunity and would be more than happy to answer any questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Smith. Thank you very much for your testimony, and without objection your full statement will be made a part of the record as well as our other distinguished witnesses.    Mr. Sazegara, please proceed.</t>
   </si>
   <si>
+    <t>Sazegara</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Sazegara. Thank you, Mr. Chairman. Thank you, subcommittee members.    During the last three and a half decades, the Iranian people have bitterly experienced suppression of their fundamental freedoms and rights and witnessed brutal crackdowns of pro-freedom movements in Iran. I deeply regret to say that extensive and systematic violations of human rights, persecutions, unfair trials, unfounded imprisonments, tortures, rapes, and extrajudicial executions still continue despite the pledges Mr. Rouhani had made to change this trend during his election campaign in 2013.    Regardless of some rare cosmetic and non-systemic release of a dozen of well-known prisoners in 2013 and 2014, the human rights abuses have not only continued but also increased in many respects, including but not limited to imprisonment of human rights activists, journalists, bloggers, university students and teachers, workers, ethnic and religious minorities, and political opposition.    In 2014, the cases of arrest, detention, and imprisonment of activists illustrate a 74-percent increase as compared to 2013. This average increase comprises 53 percent increase in ethnic minorities cases, 10 percent in religious, 93 percent students, 410 percent freedom of expression and conscience, and 354 percent in labor activists cases.    Another human rights violation in Iran includes persistent and pervasive assault on women on a continued basis under the pretext of disrespecting hijab, education and employment segregation, and being banned from appearing on stage for musical performances.    Torture of political prisoners continues to coerce fabricated confessions that are then used to justify brutal crackdowns. According to first hand reports received from former political prisoners, the main methods of torture include whipping and assault, sexual torture including rape, and psychological torture such as prolonged solitary confinement. These reports are also in conformity with the reports by Dr. Shaheed, the U.N. Special Rapporteur on the Situation of Human Rights in Iran.    Execution in Iran has increased from 544 known cases in 2012 to more than 800 known cases in 2014, it being the highest per capita rate in the world. The numbers are however suspected to be higher since many of these executions are carried out in secret and the regime has consistently refrained from releasing numbers and denied the U.N. Special Rapporteur's access to the country.    These are only examples of a range of human rights violation categories. Such extensive and systematic violations of human rights should not come as a surprise. Despite talk of moderation, Rouhani has indulged impunity and rewarded the perpetrators of such grave abuses. His present Justice Minister Mr. Pourmohammadi who played, as a member of the notorious ``death committee,'' a key role in the 1988 prison massacre, has been appointed by this very ``moderate'' government.    In the end, I cordially submit that a standing subcommittee be formed under the Subcommittee on the Middle East and North Africa in order to monitor and take all the necessary measures to draw the world's attention to the grave human rights abuses in Iran. Enclosed I have submitted the first two proposals to be put on the docket of this subcommittee. Thank you very much.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Smith. Thank you very much.    Yes, thank you so much for that testimony. Both of you brought up the fact that the Justice Minister is in this ``moderate'' government serving in a high position despite his horrific past.    I would like to now ask Mr. Vance if you would proceed.</t>
   </si>
   <si>
+    <t>Vance</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Vance. Chairman Smith, Chairman Ros-Lehtinen and also Chairman Chabot, I would like to thank you for giving me the opportunity to testify on the situation of the Baha'is of Iran.    A little background, I think, is appropriate. The Baha'i Faith is an independent world religion with over 5 million followers in over 200 countries and territories representing virtually every racial, ethnic, and national group on the planet.    The faith originated in Iran. It spread rapidly in the mid-1840s immediately after its inception and included several notable clerics among its initial adherents. This triggered a violent reaction instigated or supported by a majority of the clergy, during which some 20,000 Baha'is were killed over little more than a decade.    The primary reason that Baha'is are persecuted is theological. Most of the Islamic clergy in Iran believes that Islam is the final religion of God. The Baha'i Faith, a religion that arose after Islam, is therefore viewed by most of Iran's clergy as heresy and blasphemy, and Baha'is are viewed as apostates.    In addition, Iran's clerics view certain teachings of the Baha'i Faith as threatening. For instance, the Baha'i Faith does not have a clergy and holds that each individual has the duty to investigate spiritual truth and arrive at his or her own beliefs. In addition, Baha'is believe strongly in the equality of women and men.    Now while the intense brutality against Baha'is began to subside toward the end of the nineteenth century, unequal treatment, social hostilities and sporadic surges in violence continued during much of the twentieth century. After the Islamic Revolution of 1979, Baha'is became the target of severe and systematic state-sponsored persecution and it became official government policy to oppress Baha'is.    In the years following the revolution, over 200 Baha'is were killed, the majority by execution. Thousands of Baha'is were imprisoned, many of them tortured. Baha'i holy places were destroyed and Baha'i cemeteries have repeatedly been attacked and desecrated, including the current ongoing excavation of the large Baha'i cemetery in Shiraz.    The government also made and continues to make concerted efforts to impoverish the Baha'i community. After the revolution, Baha'is were dismissed from government jobs and denied pensions and private employers have been pressured not to hire Baha'is. Baha'is still suffer frequent raids on their homes and businesses, including a recent spate of shop closures, and their property is routinely seized without compensation.    Baha'is were also dismissed from university positions after the revolution, and Baha'i students have been excluded from the nation's universities and continue to be so. The seven members of the former ad hoc leadership group of the Baha'i community are among the 100 Baha'is currently imprisoned in Iran, nearly twice the number that were imprisoned at the end of 2010.    In the last several months there has also been a disturbing surge in anti-Baha'i hate propaganda in state-sponsored media outlets. In 2010 and 2011, approximately 22 anti-Baha'i pieces were appearing every month. In 2014, the number of anti-Baha'i pieces rose to approximately 401 per month, 18 times the previous level.    In July 2013, the Supreme Leader Ali Khamenei reissued a religious decree prohibiting Iranian Muslims from associating with members of the ``deviant sect,'' a well-known reference to Baha'is. The clerical establishment has long promoted the view that Baha'is are ritually unclean and that the blood of Baha'is is mobah, meaning that it can be spilled with impunity.    Last October, the review of Iran's human rights record before the U.N. Human Rights Council revealed that Iran had failed to live up to dozens of promises made during its last Universal Periodic Review in 2010, including several related to the Baha'is. Yet in an astonishingly blatant falsehood, Iran's written response to the council declared ``minorities, including Baha'is, enjoyed a full range of opportunities and privileges.''    It is our hope that at the follow-up session on Iran that will be held next month, responsible nations will emphasize the persecution of the Baha'is and countless other individuals and will hold the Iranian Government to account for its gross violations of human rights. Thank you very much, Mr. Chairman.</t>
   </si>
   <si>
@@ -266,6 +311,12 @@
   </si>
   <si>
     <t>412526</t>
+  </si>
+  <si>
+    <t>DeSantis</t>
+  </si>
+  <si>
+    <t>Ron</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. DeSantis. Thank you Madam Chairman.    Mr. Sazegara, when you joined the Islamic Revolution in 1979, you were there it seemed to be from, I read your bio, about 10 years before you left?</t>
@@ -719,7 +770,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H110"/>
+  <dimension ref="A1:I110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -727,7 +778,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -749,2621 +800,3055 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s"/>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
       <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
       <c r="H7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
       <c r="H9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>35</v>
+      </c>
+      <c r="G11" t="s">
+        <v>36</v>
+      </c>
       <c r="H11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G19" t="s">
+        <v>21</v>
+      </c>
       <c r="H19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G21" t="s">
+        <v>21</v>
+      </c>
       <c r="H21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G23" t="s">
+        <v>21</v>
+      </c>
       <c r="H23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G25" t="s">
+        <v>21</v>
+      </c>
       <c r="H25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G27" t="s">
+        <v>21</v>
+      </c>
       <c r="H27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G29" t="s">
+        <v>21</v>
+      </c>
       <c r="H29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G31" t="s">
+        <v>21</v>
+      </c>
       <c r="H31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>40</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G33" t="s">
+        <v>21</v>
+      </c>
       <c r="H33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>43</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G35" t="s">
+        <v>21</v>
+      </c>
       <c r="H35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>43</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G37" t="s">
+        <v>21</v>
+      </c>
       <c r="H37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>43</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G39" t="s">
+        <v>21</v>
+      </c>
       <c r="H39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>43</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G41" t="s">
+        <v>21</v>
+      </c>
       <c r="H41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>43</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G43" t="s">
+        <v>21</v>
+      </c>
       <c r="H43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>43</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G45" t="s">
+        <v>21</v>
+      </c>
       <c r="H45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>43</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G47" t="s">
+        <v>21</v>
+      </c>
       <c r="H47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>43</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G49" t="s">
+        <v>21</v>
+      </c>
       <c r="H49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G51" t="s">
+        <v>21</v>
+      </c>
       <c r="H51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G53" t="s">
+        <v>21</v>
+      </c>
       <c r="H53" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>19</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G54" t="s">
+        <v>26</v>
+      </c>
       <c r="H54" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>43</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>40</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>19</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G57" t="s">
+        <v>26</v>
+      </c>
       <c r="H57" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>43</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>19</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G59" t="s">
+        <v>26</v>
+      </c>
       <c r="H59" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>43</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>40</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>19</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G62" t="s">
+        <v>26</v>
+      </c>
       <c r="H62" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I62" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G63" t="s">
+        <v>43</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>19</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G64" t="s">
+        <v>26</v>
+      </c>
       <c r="H64" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I64" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>43</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>40</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>19</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G67" t="s">
+        <v>26</v>
+      </c>
       <c r="H67" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I67" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>40</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>19</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G69" t="s">
+        <v>26</v>
+      </c>
       <c r="H69" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I69" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G70" t="s">
+        <v>21</v>
+      </c>
       <c r="H70" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I70" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>83</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G71" t="s">
+        <v>99</v>
+      </c>
       <c r="H71" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I71" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G72" t="s">
+        <v>43</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>83</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G73" t="s">
+        <v>99</v>
+      </c>
       <c r="H73" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I73" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G74" t="s">
+        <v>43</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>83</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G75" t="s">
+        <v>99</v>
+      </c>
       <c r="H75" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I75" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G76" t="s">
+        <v>43</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>83</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G77" t="s">
+        <v>99</v>
+      </c>
       <c r="H77" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I77" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G78" t="s">
+        <v>43</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>83</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G79" t="s">
+        <v>99</v>
+      </c>
       <c r="H79" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I79" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G80" t="s">
+        <v>43</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>83</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G81" t="s">
+        <v>99</v>
+      </c>
       <c r="H81" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I81" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G82" t="s">
+        <v>43</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>83</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G83" t="s">
+        <v>99</v>
+      </c>
       <c r="H83" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I83" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>11</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G84" t="s">
+        <v>43</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>83</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G85" t="s">
+        <v>99</v>
+      </c>
       <c r="H85" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I85" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>11</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G86" t="s">
+        <v>43</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>83</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G87" t="s">
+        <v>99</v>
+      </c>
       <c r="H87" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I87" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>11</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G88" t="s">
+        <v>43</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>83</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G89" t="s">
+        <v>99</v>
+      </c>
       <c r="H89" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I89" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>11</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G90" t="s">
+        <v>43</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>83</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G91" t="s">
+        <v>99</v>
+      </c>
       <c r="H91" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I91" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>11</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G92" t="s">
+        <v>43</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>83</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G93" t="s">
+        <v>99</v>
+      </c>
       <c r="H93" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I93" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>11</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G94" t="s">
+        <v>40</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>83</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G95" t="s">
+        <v>99</v>
+      </c>
       <c r="H95" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I95" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>11</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G96" t="s">
+        <v>43</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>83</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G97" t="s">
+        <v>99</v>
+      </c>
       <c r="H97" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I97" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>11</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G98" t="s">
+        <v>40</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>83</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G99" t="s">
+        <v>99</v>
+      </c>
       <c r="H99" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I99" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>11</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G100" t="s">
+        <v>40</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>83</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G101" t="s">
+        <v>99</v>
+      </c>
       <c r="H101" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I101" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>11</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G102" t="s">
+        <v>40</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>83</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G103" t="s">
+        <v>99</v>
+      </c>
       <c r="H103" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I103" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>11</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G104" t="s">
+        <v>40</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>83</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G105" t="s">
+        <v>99</v>
+      </c>
       <c r="H105" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I105" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>11</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G106" t="s">
+        <v>43</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>83</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G107" t="s">
+        <v>99</v>
+      </c>
       <c r="H107" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I107" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>11</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>83</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G109" t="s">
+        <v>99</v>
+      </c>
       <c r="H109" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I109" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>16</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G110" t="s">
+        <v>21</v>
+      </c>
       <c r="H110" t="s">
-        <v>118</v>
+        <v>22</v>
+      </c>
+      <c r="I110" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg93535.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93535.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="140">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -64,6 +67,9 @@
     <t>412385</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Deutch</t>
   </si>
   <si>
@@ -79,6 +85,9 @@
     <t>400344</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Ros-Lehtinen</t>
   </si>
   <si>
@@ -92,6 +101,9 @@
   </si>
   <si>
     <t>412470</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Cicilline</t>
@@ -770,7 +782,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I110"/>
+  <dimension ref="A1:J110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -778,7 +790,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -803,3052 +815,3268 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="I2" t="s"/>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="J9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>44</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" t="s">
-        <v>40</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>44</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H23" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" t="s">
-        <v>40</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>44</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G25" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H25" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" t="s">
-        <v>40</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>44</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G27" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H27" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" t="s">
-        <v>40</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>44</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G29" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H29" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" t="s">
-        <v>40</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>44</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G31" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H31" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" t="s">
-        <v>40</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>44</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G33" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H33" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I33" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" t="s">
-        <v>43</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H35" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I35" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" t="s">
-        <v>43</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G37" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H37" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I37" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" t="s">
-        <v>43</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G39" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H39" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I39" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" t="s">
-        <v>43</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G41" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H41" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I41" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" t="s">
-        <v>43</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G43" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H43" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" t="s">
-        <v>43</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G45" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H45" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I45" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" t="s">
-        <v>43</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G47" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H47" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I47" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J47" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" t="s">
-        <v>43</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G49" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H49" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I49" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" t="s">
-        <v>46</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>50</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G51" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H51" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I51" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J51" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" t="s">
-        <v>46</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>50</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G53" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H53" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I53" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G54" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H54" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I54" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J54" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" t="s">
-        <v>43</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" t="s">
-        <v>40</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>44</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G57" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H57" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I57" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J57" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" t="s">
-        <v>43</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G59" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H59" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I59" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J59" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" t="s">
-        <v>43</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" t="s">
-        <v>40</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>44</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G62" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H62" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I62" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J62" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
-      </c>
-      <c r="G63" t="s">
-        <v>43</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G64" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H64" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I64" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J64" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" t="s">
-        <v>43</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" t="s">
-        <v>40</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>44</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G67" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H67" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I67" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J67" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
-      </c>
-      <c r="G68" t="s">
-        <v>40</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>44</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G69" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H69" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I69" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J69" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G70" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H70" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I70" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J70" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G71" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="H71" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I71" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J71" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" t="s">
-        <v>43</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G73" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="H73" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I73" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J73" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
-      </c>
-      <c r="G74" t="s">
-        <v>43</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G75" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="H75" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I75" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J75" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>12</v>
-      </c>
-      <c r="G76" t="s">
-        <v>43</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G77" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="H77" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I77" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J77" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>12</v>
-      </c>
-      <c r="G78" t="s">
-        <v>43</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G79" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="H79" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I79" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J79" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>12</v>
-      </c>
-      <c r="G80" t="s">
-        <v>43</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G81" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="H81" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I81" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J81" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>12</v>
-      </c>
-      <c r="G82" t="s">
-        <v>43</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G83" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="H83" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I83" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J83" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>12</v>
-      </c>
-      <c r="G84" t="s">
-        <v>43</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G85" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="H85" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I85" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J85" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>12</v>
-      </c>
-      <c r="G86" t="s">
-        <v>43</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G87" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="H87" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I87" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J87" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>12</v>
-      </c>
-      <c r="G88" t="s">
-        <v>43</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G89" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="H89" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I89" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J89" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>12</v>
-      </c>
-      <c r="G90" t="s">
-        <v>43</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G91" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="H91" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I91" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J91" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>12</v>
-      </c>
-      <c r="G92" t="s">
-        <v>43</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G93" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="H93" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I93" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J93" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>12</v>
-      </c>
-      <c r="G94" t="s">
-        <v>40</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>44</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G95" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="H95" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I95" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J95" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>12</v>
-      </c>
-      <c r="G96" t="s">
-        <v>43</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G97" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="H97" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I97" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J97" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
-      </c>
-      <c r="G98" t="s">
-        <v>40</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>44</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G99" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="H99" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I99" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J99" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>12</v>
-      </c>
-      <c r="G100" t="s">
-        <v>40</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>44</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G101" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="H101" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I101" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J101" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>12</v>
-      </c>
-      <c r="G102" t="s">
-        <v>40</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>44</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G103" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="H103" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I103" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J103" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>12</v>
-      </c>
-      <c r="G104" t="s">
-        <v>40</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>44</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G105" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="H105" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I105" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J105" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>12</v>
-      </c>
-      <c r="G106" t="s">
-        <v>43</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G107" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="H107" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I107" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J107" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>12</v>
-      </c>
-      <c r="G108" t="s">
-        <v>46</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>50</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G109" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="H109" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I109" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J109" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G110" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H110" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I110" t="s">
-        <v>135</v>
+        <v>25</v>
+      </c>
+      <c r="J110" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
